--- a/doc/ue_input.xlsx
+++ b/doc/ue_input.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B2ACBC-061C-4559-9130-DBE96DE6C9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="输入监控" sheetId="4" r:id="rId4"/>
+    <sheet name="UI响应" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
   <si>
     <t>场景缺省的输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,13 +238,176 @@
   </si>
   <si>
     <t>SceneView也就是一个Widget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 输入监听器</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 后期拓展一下，每一次输入到底被那个Slate吞掉都打印一下，方便点击无效的时候排查</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * if (InputPreProcessors.HandleKeyUpEvent(*this, InKeyEvent))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */</t>
+  </si>
+  <si>
+    <t>class UE4_TEST001_API MyInputProcessor : public IInputProcessor</t>
+  </si>
+  <si>
+    <t>public:</t>
+  </si>
+  <si>
+    <t>MyInputProcessor();</t>
+  </si>
+  <si>
+    <t>virtual ~MyInputProcessor();</t>
+  </si>
+  <si>
+    <t>virtual void Tick(const float DeltaTime, FSlateApplication&amp; SlateApp, TSharedRef&lt;ICursor&gt; Cursor);</t>
+  </si>
+  <si>
+    <t>/** Key down input */</t>
+  </si>
+  <si>
+    <t>virtual bool HandleKeyDownEvent(FSlateApplication&amp; SlateApp, const FKeyEvent&amp; InKeyEvent);</t>
+  </si>
+  <si>
+    <t>/** Key up input */</t>
+  </si>
+  <si>
+    <t>virtual bool HandleKeyUpEvent(FSlateApplication&amp; SlateApp, const FKeyEvent&amp; InKeyEvent);</t>
+  </si>
+  <si>
+    <t>/** Analog axis input */</t>
+  </si>
+  <si>
+    <t>virtual bool HandleAnalogInputEvent(FSlateApplication&amp; SlateApp, const FAnalogInputEvent&amp; InAnalogInputEvent);</t>
+  </si>
+  <si>
+    <t>/** Mouse movement input */</t>
+  </si>
+  <si>
+    <t>virtual bool HandleMouseMoveEvent(FSlateApplication&amp; SlateApp, const FPointerEvent&amp; MouseEvent);</t>
+  </si>
+  <si>
+    <t>/** Mouse button press */</t>
+  </si>
+  <si>
+    <t>virtual bool HandleMouseButtonDownEvent(FSlateApplication&amp; SlateApp, const FPointerEvent&amp; MouseEvent);</t>
+  </si>
+  <si>
+    <t>/** Mouse button release */</t>
+  </si>
+  <si>
+    <t>virtual bool HandleMouseButtonUpEvent(FSlateApplication&amp; SlateApp, const FPointerEvent&amp; MouseEvent);</t>
+  </si>
+  <si>
+    <t>/** Mouse button double clicked. */</t>
+  </si>
+  <si>
+    <t>virtual bool HandleMouseButtonDoubleClickEvent(FSlateApplication&amp; SlateApp, const FPointerEvent&amp; MouseEvent);</t>
+  </si>
+  <si>
+    <t>/** Mouse wheel input */</t>
+  </si>
+  <si>
+    <t>virtual bool HandleMouseWheelOrGestureEvent(FSlateApplication&amp; SlateApp, const FPointerEvent&amp; InWheelEvent, const FPointerEvent* InGestureEvent);</t>
+  </si>
+  <si>
+    <t>/** Called when a motion-driven device has new input */</t>
+  </si>
+  <si>
+    <t>virtual bool HandleMotionDetectedEvent(FSlateApplication&amp; SlateApp, const FMotionEvent&amp; MotionEvent);</t>
+  </si>
+  <si>
+    <t>/** Debug name for logging purposes */</t>
+  </si>
+  <si>
+    <t>virtual const TCHAR* GetDebugName() const { return TEXT("MyInputProcessor"); }</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>在鼠标按下的时候进行监控，打印日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次鼠标按下谈起，导致被那个Slate吞掉了，可以监控（非Shiping）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if WITH_SLATE_DEBUGGING</t>
+  </si>
+  <si>
+    <t>FSlateDebugging::BroadcastInputEvent(ESlateDebuggingInputEvent::MouseButtonDown, TempReply, InMouseCaptorWidget.Widget);</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>FSlateDebugging</t>
+  </si>
+  <si>
+    <t>DECLARE_MULTICAST_DELEGATE_OneParam(FWidgetInputEvent, const FSlateDebuggingInputEventArgs&amp; /*EventArgs*/);</t>
+  </si>
+  <si>
+    <t>static FWidgetInputEvent InputEvent;</t>
+  </si>
+  <si>
+    <t>注册事件，可以打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UMyEngineSubsystem::HandleInputEvent(const FSlateDebuggingInputEventArgs&amp; EventArgs) const</t>
+  </si>
+  <si>
+    <t>if (!EventArgs.HandlerWidget.IsValid())</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::HandleInputEvent Invalid HandlerWidget"));</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FReflectionMetaData&gt; MetaData = EventArgs.HandlerWidget-&gt;GetMetaData&lt;FReflectionMetaData&gt;();</t>
+  </si>
+  <si>
+    <t>if (!MetaData.IsValid())</t>
+  </si>
+  <si>
+    <t>if (bPress)</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("UMyEngineSubsystem::Initialize2"));</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogTemp, Log, TEXT("Name=%s"), *(MetaData-&gt;Name.ToString()));</t>
+  </si>
+  <si>
+    <t>//UE_LOG(LogTemp, Log, TEXT("Name=%s, Asset=%s"), *(MetaData-&gt;Name.ToString()), *(MetaData-&gt;Asset-&gt;GetFName().ToString());</t>
+  </si>
+  <si>
+    <t>//EventArgs.HandlerWidget-&gt;GetPersistentState().PaintParent-&gt;SObjectWidget;</t>
+  </si>
+  <si>
+    <t>FSlateDebugging::InputEvent.AddUObject(this, &amp;UMyEngineSubsystem::HandleInputEvent);</t>
+  </si>
+  <si>
+    <t>例如对UMG控件的输入监控：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,7 +752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -625,7 +791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -724,10 +890,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -956,4 +1122,357 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE1695C-281D-43BB-9C54-9A1D3562D7BA}">
+  <dimension ref="B3:C48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52940675-B32D-4B0B-9167-CC76F4E953F8}">
+  <dimension ref="B3:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_input.xlsx
+++ b/doc/ue_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B2ACBC-061C-4559-9130-DBE96DE6C9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE7F0BC-0FB4-4E28-A957-70B18CBF593E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="输入监控" sheetId="4" r:id="rId4"/>
     <sheet name="UI响应" sheetId="5" r:id="rId5"/>
+    <sheet name="ISlateMetaData类型" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
   <si>
     <t>场景缺省的输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +402,27 @@
   </si>
   <si>
     <t>例如对UMG控件的输入监控：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISlateMetaData</t>
+  </si>
+  <si>
+    <t>输入相应的metadata基类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class SLATECORE_API FReflectionMetaData : public ISlateMetaData</t>
+  </si>
+  <si>
+    <t>UMG控件响应实现，可以从里面得到UMG相应的控件，及所属的ASSET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class SLATECORE_API FNavigationMetaData : public ISlateMetaData</t>
+  </si>
+  <si>
+    <t>点击屏幕的Slate时，影响该Metadata</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1315,7 +1337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52940675-B32D-4B0B-9167-CC76F4E953F8}">
   <dimension ref="B3:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -1475,4 +1497,51 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474E7B86-FC30-49DC-8AB4-ACFD0F1408E1}">
+  <dimension ref="B3:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_input.xlsx
+++ b/doc/ue_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE7F0BC-0FB4-4E28-A957-70B18CBF593E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A6841-61A9-4F10-9504-5045E42D532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
   <si>
     <t>场景缺省的输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,30 @@
   </si>
   <si>
     <t>点击屏幕的Slate时，影响该Metadata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于普通的屏幕TOUCH事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过FSceneViewport-&gt;UGameViewportClient-&gt;APlayerController-&gt;UPlayerInput::InputTouch收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应的信息存储在KeyStateMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在World::Tick里面，调用APlayerController::TickActor，然后APlayerController::PlayerTick，APlayerController::TickPlayerInput，APlayerController::ProcessPlayerInput，最后调用UPlayerInput::ProcessInputStack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历所有的InputComponentStack，只有我们自己的Player会绑定了事件处理（IC-&gt;TouchBindings.Num()&gt;0)，所以消耗上面存储的KeyStateMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行事件的回调，例如Press，Release等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -495,6 +519,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -510,6 +535,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C6D3D3A-D62B-4FA0-8443-21A40145C4C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3190875" y="3305175"/>
+          <a:ext cx="11277600" cy="6191250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D21D4A8-1A7B-4613-B291-C55F798791FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3190875" y="10372725"/>
+          <a:ext cx="12058650" cy="8610600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -775,16 +927,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:B9"/>
+  <dimension ref="A4:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="58.875" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="49.125" customWidth="1"/>
     <col min="4" max="4" width="54.375" customWidth="1"/>
     <col min="5" max="5" width="42.625" customWidth="1"/>
@@ -795,20 +947,57 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="4">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -816,7 +1005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -915,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1150,7 +1339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE1695C-281D-43BB-9C54-9A1D3562D7BA}">
   <dimension ref="B3:C48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -1503,7 +1692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474E7B86-FC30-49DC-8AB4-ACFD0F1408E1}">
   <dimension ref="B3:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_input.xlsx
+++ b/doc/ue_input.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A6841-61A9-4F10-9504-5045E42D532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01AB4E1-3215-456E-BE10-C07594EDAF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="输入监控" sheetId="4" r:id="rId4"/>
-    <sheet name="UI响应" sheetId="5" r:id="rId5"/>
-    <sheet name="ISlateMetaData类型" sheetId="6" r:id="rId6"/>
+    <sheet name="简介" sheetId="7" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="输入监控" sheetId="4" r:id="rId5"/>
+    <sheet name="UI响应" sheetId="5" r:id="rId6"/>
+    <sheet name="ISlateMetaData类型" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="144">
   <si>
     <t>场景缺省的输入</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,6 +448,72 @@
   </si>
   <si>
     <t>进行事件的回调，例如Press，Release等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE的输入处理，可以分为两类：一类是屏幕的输入处理，控制角色旋转等；一类是UI相关的输入响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI输入响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕输入响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家进行TOUCH，MOUSE，KEY等输入时，底层SLateApplication将这部分的输入传入到PlayerController的PlayerInput中缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后等待每次Uworld::Tick的时候，回调对应角色的绑定回调函数，一般就是Press，Release和Repeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家进行TOUCH，MOUSE，KEY等输入时，直接将当前所有的Widget排序，挨个遍历，回调对应的处理函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本质上SViewPort也是一个Widget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于输入，各个平台有有自己的处理机制：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IOS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOSInputInterface.cpp</t>
+  </si>
+  <si>
+    <t>void FIOSInputInterface::QueueTouchInput(const TArray&lt;TouchInput&gt;&amp; InTouchEvents)</t>
+  </si>
+  <si>
+    <t>所有的TOUCH放入一个大小10的数组里面，Release的时候对应数组清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WindowsApplication.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win32消息泵的这一套机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！不是即时处理的，会缓存后在TICK里处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,10 +993,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A193B6D7-BD31-4E0D-9AD7-5A552A504F41}">
+  <dimension ref="B2:T34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
@@ -1001,7 +1166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:E18"/>
   <sheetViews>
@@ -1100,7 +1265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:F48"/>
   <sheetViews>
@@ -1335,7 +1500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE1695C-281D-43BB-9C54-9A1D3562D7BA}">
   <dimension ref="B3:C48"/>
   <sheetViews>
@@ -1522,7 +1687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52940675-B32D-4B0B-9167-CC76F4E953F8}">
   <dimension ref="B3:F41"/>
   <sheetViews>
@@ -1688,7 +1853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474E7B86-FC30-49DC-8AB4-ACFD0F1408E1}">
   <dimension ref="B3:C17"/>
   <sheetViews>
